--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/7/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/7/FD_Curve.xlsx
@@ -554,285 +554,285 @@
         <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>10.0211</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>10021.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1847</v>
+        <v>11.0487</v>
       </c>
       <c r="C12" t="n">
-        <v>11184.7</v>
+        <v>11048.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1567</v>
+        <v>11.7867</v>
       </c>
       <c r="C13" t="n">
-        <v>12156.7</v>
+        <v>11786.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371633</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>13.3374</v>
+        <v>12.4308</v>
       </c>
       <c r="C14" t="n">
-        <v>13337.4</v>
+        <v>12430.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402558</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2742</v>
+        <v>13.0944</v>
       </c>
       <c r="C15" t="n">
-        <v>14274.2</v>
+        <v>13094.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433483</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0569</v>
+        <v>13.475</v>
       </c>
       <c r="C16" t="n">
-        <v>15056.9</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>15.754</v>
+        <v>13.934</v>
       </c>
       <c r="C17" t="n">
-        <v>15754</v>
+        <v>13934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>16.4269</v>
+        <v>14.2164</v>
       </c>
       <c r="C18" t="n">
-        <v>16426.9</v>
+        <v>14216.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>16.8462</v>
+        <v>14.4158</v>
       </c>
       <c r="C19" t="n">
-        <v>16846.2</v>
+        <v>14415.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>17.2706</v>
+        <v>14.5055</v>
       </c>
       <c r="C20" t="n">
-        <v>17270.6</v>
+        <v>14505.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>17.4992</v>
+        <v>14.5203</v>
       </c>
       <c r="C21" t="n">
-        <v>17499.2</v>
+        <v>14520.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>17.6783</v>
+        <v>14.495</v>
       </c>
       <c r="C22" t="n">
-        <v>17678.3</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650322</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>17.7094</v>
+        <v>14.4536</v>
       </c>
       <c r="C23" t="n">
-        <v>17709.4</v>
+        <v>14453.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>17.6711</v>
+        <v>14.4053</v>
       </c>
       <c r="C24" t="n">
-        <v>17671.1</v>
+        <v>14405.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>17.6123</v>
+        <v>14.3524</v>
       </c>
       <c r="C25" t="n">
-        <v>17612.3</v>
+        <v>14352.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438439999999999</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>17.5469</v>
+        <v>14.2956</v>
       </c>
       <c r="C26" t="n">
-        <v>17546.9</v>
+        <v>14295.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>17.4754</v>
+        <v>14.2349</v>
       </c>
       <c r="C27" t="n">
-        <v>17475.4</v>
+        <v>14234.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>17.3981</v>
+        <v>14.1706</v>
       </c>
       <c r="C28" t="n">
-        <v>17398.1</v>
+        <v>14170.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>17.3125</v>
+        <v>14.1016</v>
       </c>
       <c r="C29" t="n">
-        <v>17312.5</v>
+        <v>14101.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>17.2128</v>
+        <v>14.0226</v>
       </c>
       <c r="C30" t="n">
-        <v>17212.8</v>
+        <v>14022.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>17.1057</v>
+        <v>13.939</v>
       </c>
       <c r="C31" t="n">
-        <v>17105.7</v>
+        <v>13939</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>16.9878</v>
+        <v>13.8444</v>
       </c>
       <c r="C32" t="n">
-        <v>16987.8</v>
+        <v>13844.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>16.857</v>
+        <v>13.7451</v>
       </c>
       <c r="C33" t="n">
-        <v>16857</v>
+        <v>13745.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>16.7194</v>
+        <v>13.6344</v>
       </c>
       <c r="C34" t="n">
-        <v>16719.4</v>
+        <v>13634.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02425</v>
       </c>
       <c r="B35" t="n">
-        <v>16.5659</v>
+        <v>13.5189</v>
       </c>
       <c r="C35" t="n">
-        <v>16565.9</v>
+        <v>13518.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>16.4082</v>
+        <v>13.3933</v>
       </c>
       <c r="C36" t="n">
-        <v>16408.2</v>
+        <v>13393.3</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>16.2332</v>
+        <v>13.2594</v>
       </c>
       <c r="C37" t="n">
-        <v>16233.2</v>
+        <v>13259.4</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1.11716</v>
       </c>
       <c r="B38" t="n">
-        <v>16.0511</v>
+        <v>13.1177</v>
       </c>
       <c r="C38" t="n">
-        <v>16051.1</v>
+        <v>13117.7</v>
       </c>
     </row>
     <row r="39">
@@ -862,21 +862,21 @@
         <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>15.8576</v>
+        <v>12.9663</v>
       </c>
       <c r="C39" t="n">
-        <v>15857.6</v>
+        <v>12966.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.17909</v>
       </c>
       <c r="B40" t="n">
-        <v>15.6506</v>
+        <v>12.8094</v>
       </c>
       <c r="C40" t="n">
-        <v>15650.6</v>
+        <v>12809.4</v>
       </c>
     </row>
     <row r="41">
@@ -884,131 +884,131 @@
         <v>1.21006</v>
       </c>
       <c r="B41" t="n">
-        <v>15.4376</v>
+        <v>12.6407</v>
       </c>
       <c r="C41" t="n">
-        <v>15437.6</v>
+        <v>12640.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24103</v>
+        <v>1.24107</v>
       </c>
       <c r="B42" t="n">
-        <v>15.2062</v>
+        <v>13.4785</v>
       </c>
       <c r="C42" t="n">
-        <v>15206.2</v>
+        <v>13478.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27207</v>
+        <v>1.27181</v>
       </c>
       <c r="B43" t="n">
-        <v>10.8451</v>
+        <v>6.47892</v>
       </c>
       <c r="C43" t="n">
-        <v>10845.1</v>
+        <v>6478.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30304</v>
+        <v>1.30253</v>
       </c>
       <c r="B44" t="n">
-        <v>9.77163</v>
+        <v>8.662739999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>9771.629999999999</v>
+        <v>8662.74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33376</v>
+        <v>1.33359</v>
       </c>
       <c r="B45" t="n">
-        <v>13.587</v>
+        <v>11.9838</v>
       </c>
       <c r="C45" t="n">
-        <v>13587</v>
+        <v>11983.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36454</v>
+        <v>1.36501</v>
       </c>
       <c r="B46" t="n">
-        <v>14.2001</v>
+        <v>11.85</v>
       </c>
       <c r="C46" t="n">
-        <v>14200.1</v>
+        <v>11850</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39601</v>
+        <v>1.39594</v>
       </c>
       <c r="B47" t="n">
-        <v>13.9581</v>
+        <v>11.6965</v>
       </c>
       <c r="C47" t="n">
-        <v>13958.1</v>
+        <v>11696.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42729</v>
+        <v>1.42689</v>
       </c>
       <c r="B48" t="n">
-        <v>12.9696</v>
+        <v>11.5751</v>
       </c>
       <c r="C48" t="n">
-        <v>12969.6</v>
+        <v>11575.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45806</v>
+        <v>1.45802</v>
       </c>
       <c r="B49" t="n">
-        <v>14.0332</v>
+        <v>11.3654</v>
       </c>
       <c r="C49" t="n">
-        <v>14033.2</v>
+        <v>11365.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48913</v>
+        <v>1.48882</v>
       </c>
       <c r="B50" t="n">
-        <v>14.1284</v>
+        <v>11.2023</v>
       </c>
       <c r="C50" t="n">
-        <v>14128.4</v>
+        <v>11202.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52007</v>
+        <v>1.5201</v>
       </c>
       <c r="B51" t="n">
-        <v>13.6722</v>
+        <v>11.136</v>
       </c>
       <c r="C51" t="n">
-        <v>13672.2</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55101</v>
+        <v>1.55113</v>
       </c>
       <c r="B52" t="n">
-        <v>13.2382</v>
+        <v>10.7898</v>
       </c>
       <c r="C52" t="n">
-        <v>13238.2</v>
+        <v>10789.8</v>
       </c>
     </row>
     <row r="53">
@@ -1016,549 +1016,549 @@
         <v>1.58216</v>
       </c>
       <c r="B53" t="n">
-        <v>13.0447</v>
+        <v>10.4121</v>
       </c>
       <c r="C53" t="n">
-        <v>13044.7</v>
+        <v>10412.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61318</v>
+        <v>1.61319</v>
       </c>
       <c r="B54" t="n">
-        <v>12.7638</v>
+        <v>10.2834</v>
       </c>
       <c r="C54" t="n">
-        <v>12763.8</v>
+        <v>10283.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64417</v>
+        <v>1.64401</v>
       </c>
       <c r="B55" t="n">
-        <v>12.5422</v>
+        <v>10.0383</v>
       </c>
       <c r="C55" t="n">
-        <v>12542.2</v>
+        <v>10038.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67515</v>
+        <v>1.67511</v>
       </c>
       <c r="B56" t="n">
-        <v>12.1069</v>
+        <v>9.894260000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>12106.9</v>
+        <v>9894.26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7062</v>
+        <v>1.70596</v>
       </c>
       <c r="B57" t="n">
-        <v>11.7945</v>
+        <v>9.5619</v>
       </c>
       <c r="C57" t="n">
-        <v>11794.5</v>
+        <v>9561.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73709</v>
+        <v>1.73714</v>
       </c>
       <c r="B58" t="n">
-        <v>11.4449</v>
+        <v>9.293810000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>11444.9</v>
+        <v>9293.809999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76822</v>
+        <v>1.7679</v>
       </c>
       <c r="B59" t="n">
-        <v>11.2793</v>
+        <v>9.01667</v>
       </c>
       <c r="C59" t="n">
-        <v>11279.3</v>
+        <v>9016.67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79911</v>
+        <v>1.79925</v>
       </c>
       <c r="B60" t="n">
-        <v>10.9857</v>
+        <v>8.96752</v>
       </c>
       <c r="C60" t="n">
-        <v>10985.7</v>
+        <v>8967.52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83031</v>
+        <v>1.82985</v>
       </c>
       <c r="B61" t="n">
-        <v>10.6093</v>
+        <v>8.746950000000002</v>
       </c>
       <c r="C61" t="n">
-        <v>10609.3</v>
+        <v>8746.950000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86117</v>
+        <v>1.86132</v>
       </c>
       <c r="B62" t="n">
-        <v>10.3683</v>
+        <v>8.480690000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>10368.3</v>
+        <v>8480.690000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89236</v>
+        <v>1.89211</v>
       </c>
       <c r="B63" t="n">
-        <v>10.2007</v>
+        <v>8.27023</v>
       </c>
       <c r="C63" t="n">
-        <v>10200.7</v>
+        <v>8270.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92333</v>
+        <v>1.92313</v>
       </c>
       <c r="B64" t="n">
-        <v>9.972569999999999</v>
+        <v>8.127510000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9972.57</v>
+        <v>8127.51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95417</v>
+        <v>1.95432</v>
       </c>
       <c r="B65" t="n">
-        <v>9.708500000000001</v>
+        <v>7.98684</v>
       </c>
       <c r="C65" t="n">
-        <v>9708.5</v>
+        <v>7986.84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98538</v>
+        <v>1.9848</v>
       </c>
       <c r="B66" t="n">
-        <v>9.518870000000001</v>
+        <v>7.84684</v>
       </c>
       <c r="C66" t="n">
-        <v>9518.870000000001</v>
+        <v>7846.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0161</v>
+        <v>2.01607</v>
       </c>
       <c r="B67" t="n">
-        <v>9.327729999999999</v>
+        <v>7.657970000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>9327.73</v>
+        <v>7657.97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04782</v>
+        <v>2.04679</v>
       </c>
       <c r="B68" t="n">
-        <v>9.182969999999999</v>
+        <v>7.51587</v>
       </c>
       <c r="C68" t="n">
-        <v>9182.969999999999</v>
+        <v>7515.87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07858</v>
+        <v>2.07756</v>
       </c>
       <c r="B69" t="n">
-        <v>8.914950000000001</v>
+        <v>7.434130000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>8914.950000000001</v>
+        <v>7434.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10931</v>
+        <v>2.10882</v>
       </c>
       <c r="B70" t="n">
-        <v>8.81842</v>
+        <v>7.26534</v>
       </c>
       <c r="C70" t="n">
-        <v>8818.42</v>
+        <v>7265.34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14056</v>
+        <v>2.13989</v>
       </c>
       <c r="B71" t="n">
-        <v>8.684420000000001</v>
+        <v>7.160060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>8684.42</v>
+        <v>7160.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17162</v>
+        <v>2.17068</v>
       </c>
       <c r="B72" t="n">
-        <v>8.51239</v>
+        <v>7.04163</v>
       </c>
       <c r="C72" t="n">
-        <v>8512.389999999999</v>
+        <v>7041.63</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20266</v>
+        <v>2.20147</v>
       </c>
       <c r="B73" t="n">
-        <v>8.365950000000002</v>
+        <v>6.98196</v>
       </c>
       <c r="C73" t="n">
-        <v>8365.950000000001</v>
+        <v>6981.96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23319</v>
+        <v>2.23292</v>
       </c>
       <c r="B74" t="n">
-        <v>8.249600000000001</v>
+        <v>6.84969</v>
       </c>
       <c r="C74" t="n">
-        <v>8249.6</v>
+        <v>6849.69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26463</v>
+        <v>2.26407</v>
       </c>
       <c r="B75" t="n">
-        <v>8.156979999999999</v>
+        <v>6.761310000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>8156.98</v>
+        <v>6761.31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29586</v>
+        <v>2.29375</v>
       </c>
       <c r="B76" t="n">
-        <v>8.022740000000001</v>
+        <v>6.65563</v>
       </c>
       <c r="C76" t="n">
-        <v>8022.74</v>
+        <v>6655.63</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32594</v>
+        <v>2.32568</v>
       </c>
       <c r="B77" t="n">
-        <v>7.90941</v>
+        <v>6.59604</v>
       </c>
       <c r="C77" t="n">
-        <v>7909.41</v>
+        <v>6596.04</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35704</v>
+        <v>2.35761</v>
       </c>
       <c r="B78" t="n">
-        <v>7.844010000000001</v>
+        <v>6.48976</v>
       </c>
       <c r="C78" t="n">
-        <v>7844.01</v>
+        <v>6489.76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38776</v>
+        <v>2.38778</v>
       </c>
       <c r="B79" t="n">
-        <v>7.83723</v>
+        <v>6.40249</v>
       </c>
       <c r="C79" t="n">
-        <v>7837.23</v>
+        <v>6402.49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41848</v>
+        <v>2.41793</v>
       </c>
       <c r="B80" t="n">
-        <v>7.80117</v>
+        <v>6.320180000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>7801.17</v>
+        <v>6320.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44895</v>
+        <v>2.44866</v>
       </c>
       <c r="B81" t="n">
-        <v>7.80954</v>
+        <v>6.26353</v>
       </c>
       <c r="C81" t="n">
-        <v>7809.54</v>
+        <v>6263.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47725</v>
+        <v>2.47682</v>
       </c>
       <c r="B82" t="n">
-        <v>7.789140000000001</v>
+        <v>6.24967</v>
       </c>
       <c r="C82" t="n">
-        <v>7789.14</v>
+        <v>6249.67</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50541</v>
+        <v>2.50769</v>
       </c>
       <c r="B83" t="n">
-        <v>7.77695</v>
+        <v>6.25392</v>
       </c>
       <c r="C83" t="n">
-        <v>7776.95</v>
+        <v>6253.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53357</v>
+        <v>2.54277</v>
       </c>
       <c r="B84" t="n">
-        <v>7.74234</v>
+        <v>6.2352</v>
       </c>
       <c r="C84" t="n">
-        <v>7742.34</v>
+        <v>6235.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56631</v>
+        <v>2.57726</v>
       </c>
       <c r="B85" t="n">
-        <v>7.69207</v>
+        <v>6.21165</v>
       </c>
       <c r="C85" t="n">
-        <v>7692.07</v>
+        <v>6211.65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60151</v>
+        <v>2.60939</v>
       </c>
       <c r="B86" t="n">
-        <v>7.66328</v>
+        <v>6.1958</v>
       </c>
       <c r="C86" t="n">
-        <v>7663.28</v>
+        <v>6195.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63506</v>
+        <v>2.6414</v>
       </c>
       <c r="B87" t="n">
-        <v>7.609640000000001</v>
+        <v>6.17281</v>
       </c>
       <c r="C87" t="n">
-        <v>7609.64</v>
+        <v>6172.81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66707</v>
+        <v>2.6734</v>
       </c>
       <c r="B88" t="n">
-        <v>7.55288</v>
+        <v>6.14939</v>
       </c>
       <c r="C88" t="n">
-        <v>7552.88</v>
+        <v>6149.39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69907</v>
+        <v>2.7054</v>
       </c>
       <c r="B89" t="n">
-        <v>7.53398</v>
+        <v>6.105399999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>7533.98</v>
+        <v>6105.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73107</v>
+        <v>2.7374</v>
       </c>
       <c r="B90" t="n">
-        <v>7.47458</v>
+        <v>6.07143</v>
       </c>
       <c r="C90" t="n">
-        <v>7474.58</v>
+        <v>6071.43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76307</v>
+        <v>2.7694</v>
       </c>
       <c r="B91" t="n">
-        <v>7.43228</v>
+        <v>6.043310000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>7432.28</v>
+        <v>6043.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79507</v>
+        <v>2.80094</v>
       </c>
       <c r="B92" t="n">
-        <v>7.37602</v>
+        <v>6.01823</v>
       </c>
       <c r="C92" t="n">
-        <v>7376.02</v>
+        <v>6018.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82707</v>
+        <v>2.82993</v>
       </c>
       <c r="B93" t="n">
-        <v>7.33947</v>
+        <v>5.98822</v>
       </c>
       <c r="C93" t="n">
-        <v>7339.47</v>
+        <v>5988.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8576</v>
+        <v>2.85877</v>
       </c>
       <c r="B94" t="n">
-        <v>7.3039</v>
+        <v>5.941850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>7303.9</v>
+        <v>5941.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88641</v>
+        <v>2.88757</v>
       </c>
       <c r="B95" t="n">
-        <v>7.23732</v>
+        <v>5.90463</v>
       </c>
       <c r="C95" t="n">
-        <v>7237.32</v>
+        <v>5904.63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91521</v>
+        <v>2.91638</v>
       </c>
       <c r="B96" t="n">
-        <v>7.19305</v>
+        <v>5.88372</v>
       </c>
       <c r="C96" t="n">
-        <v>7193.05</v>
+        <v>5883.72</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94401</v>
+        <v>2.94518</v>
       </c>
       <c r="B97" t="n">
-        <v>7.14662</v>
+        <v>5.84534</v>
       </c>
       <c r="C97" t="n">
-        <v>7146.62</v>
+        <v>5845.34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97281</v>
+        <v>2.97398</v>
       </c>
       <c r="B98" t="n">
-        <v>7.11221</v>
+        <v>5.80693</v>
       </c>
       <c r="C98" t="n">
-        <v>7112.21</v>
+        <v>5806.93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00161</v>
+        <v>3.00278</v>
       </c>
       <c r="B99" t="n">
-        <v>7.0509</v>
+        <v>5.77195</v>
       </c>
       <c r="C99" t="n">
-        <v>7050.9</v>
+        <v>5771.95</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03041</v>
+        <v>3.03158</v>
       </c>
       <c r="B100" t="n">
-        <v>7.007989999999999</v>
+        <v>5.748430000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>7007.99</v>
+        <v>5748.43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.05921</v>
+        <v>3.06038</v>
       </c>
       <c r="B101" t="n">
-        <v>6.97437</v>
+        <v>5.70278</v>
       </c>
       <c r="C101" t="n">
-        <v>6974.37</v>
+        <v>5702.78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.08801</v>
+        <v>3.08883</v>
       </c>
       <c r="B102" t="n">
-        <v>6.92985</v>
+        <v>5.665100000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>6929.85</v>
+        <v>5665.1</v>
       </c>
     </row>
   </sheetData>
